--- a/Question_Sets/Software skills/Email Skills (Gmail).xlsx
+++ b/Question_Sets/Software skills/Email Skills (Gmail).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You need to send an email to which Alex needs to respond, while Kelly only needs to be informed of the conversation.How should you address the email?', 'ques_type': 2, 'options': ['Put Alex in the Bcc field and Kelly in the Cc field.', 'Put Alex in the To field and Kelly in the Cc field.', 'Put Alex in the Cc field and Kelly in the Bcc field.', 'Put Alex in the Cc field and Kelly in the To field.'], 'score': 'Put Alex in the To field and Kelly in the Cc field.'}, {'title': "You have just received an email where you are Cc'd. The email contains a complex issue that needs to be addressed, but you are not directly asked for a solution.How should you respond in this situation?", 'ques_type': 2, 'options': ['Forward the email to another team member for input before replying.', 'Reply, asking for clarification on your role regarding the issue.', 'Reply immediately, promising to look into the issue.', 'Reply if you can provide insightful input or a potential solution.'], 'score': 'Reply if you can provide insightful input or a potential solution.'}, {'title': "You are an office administrator responsible for managing the company's email system, which uses Gmail. A new employee has asked you for help understanding labels in Gmail.What should you tell them?", 'ques_type': 2, 'options': ['You cannot have labels within other labels.', 'Labels will show up on individual emails depending on whether the conversation view is on or off.', 'While using Gmail, you can see the labels on the right side of the page.', 'If you label a message, it will show up in the conversation in both the sender’s and the recipient’s inboxes.'], 'score': 'Labels will show up on individual emails depending on whether the conversation view is on or off.'}, {'title': 'Austin, Texas is one hour behind New York City. You are based out of New York City and schedule a task for next Tuesday at 9 am. After scheduling this task, you take an urgent business trip to Austin for a couple of weeks. What will you see when you open the task in your Google calendar in Austin?', 'ques_type': 2, 'options': ['A notification that the task starts at 8 am.', 'A notification that the task starts at 9 am.', 'A notification that the task starts at 10 am.', 'A time zone error.'], 'score': 'A notification that the task starts at 8 am.'}]</t>
+    <t>questions = [
+    {
+        "title": "You need to send an email to which Alex needs to respond, while Kelly only needs to be informed of the conversation.How should you address the email?",
+        "ques_type": 2,
+        "options": [
+            "Put Alex in the Bcc field and Kelly in the Cc field.",
+            "Put Alex in the To field and Kelly in the Cc field.",
+            "Put Alex in the Cc field and Kelly in the Bcc field.",
+            "Put Alex in the Cc field and Kelly in the To field."
+        ],
+        "score": "Put Alex in the To field and Kelly in the Cc field."
+    },
+    {
+        "title": "You have just received an email where you are Cc'd. The email contains a complex issue that needs to be addressed, but you are not directly asked for a solution.How should you respond in this situation?",
+        "ques_type": 2,
+        "options": [
+            "Forward the email to another team member for input before replying.",
+            "Reply, asking for clarification on your role regarding the issue.",
+            "Reply immediately, promising to look into the issue.",
+            "Reply if you can provide insightful input or a potential solution."
+        ],
+        "score": "Reply if you can provide insightful input or a potential solution."
+    },
+    {
+        "title": "You are an office administrator responsible for managing the company's email system, which uses Gmail. A new employee has asked you for help understanding labels in Gmail.What should you tell them?",
+        "ques_type": 2,
+        "options": [
+            "You cannot have labels within other labels.",
+            "Labels will show up on individual emails depending on whether the conversation view is on or off.",
+            "While using Gmail, you can see the labels on the right side of the page.",
+            "If you label a message, it will show up in the conversation in both the sender\u2019s and the recipient\u2019s inboxes."
+        ],
+        "score": "Labels will show up on individual emails depending on whether the conversation view is on or off."
+    },
+    {
+        "title": "Austin, Texas is one hour behind New York City. You are based out of New York City and schedule a task for next Tuesday at 9 am. After scheduling this task, you take an urgent business trip to Austin for a couple of weeks. What will you see when you open the task in your Google calendar in Austin?",
+        "ques_type": 2,
+        "options": [
+            "A notification that the task starts at 8 am.",
+            "A notification that the task starts at 9 am.",
+            "A notification that the task starts at 10 am.",
+            "A time zone error."
+        ],
+        "score": "A notification that the task starts at 8 am."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
